--- a/src/test/resources/Test-Cases.xlsx
+++ b/src/test/resources/Test-Cases.xlsx
@@ -1,70 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="5880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData" sheetId="2" r:id="rId1"/>
+    <sheet name="Category" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+  <si>
+    <t>A_Catagory_1</t>
+  </si>
+  <si>
+    <t>A_Catagory_2</t>
+  </si>
+  <si>
+    <t>RunMode</t>
+  </si>
+  <si>
+    <t>Categoryname</t>
+  </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>RunMode</t>
+    <t>A2Category</t>
+  </si>
+  <si>
+    <t>A_Catagory_3</t>
+  </si>
+  <si>
+    <t>A3Category</t>
+  </si>
+  <si>
+    <t>A_Catagory_4</t>
+  </si>
+  <si>
+    <t>EditCategoryname</t>
+  </si>
+  <si>
+    <t>A4Category</t>
+  </si>
+  <si>
+    <t>DeleteStaffTest</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Staff01</t>
   </si>
   <si>
     <t>Staff02</t>
-  </si>
-  <si>
-    <t>DeleteStaffTest</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Categoryname</t>
-  </si>
-  <si>
-    <t>AddCategoryTest</t>
-  </si>
-  <si>
-    <t>Category_TC2</t>
-  </si>
-  <si>
-    <t>Category_TC3</t>
-  </si>
-  <si>
-    <t>Category_TC4</t>
-  </si>
-  <si>
-    <t>A_1</t>
-  </si>
-  <si>
-    <t>A_2</t>
-  </si>
-  <si>
-    <t>A2Category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -72,13 +81,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,8 +251,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -108,22 +448,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -131,23 +713,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -199,71 +825,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,151 +1102,158 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.140625" style="1" collapsed="1"/>
-    <col min="15" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="1" collapsed="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="25.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.8571428571429" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.4285714285714" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5714285714286" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.2857142857143" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2"/>
-    <row r="3" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="C12" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6730D99F-E4C8-447F-8B84-675C63EF5187}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/Test-Cases.xlsx
+++ b/src/test/resources/Test-Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>A_Catagory_1</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>A4Category</t>
+  </si>
+  <si>
+    <t>A_Catagory_5</t>
   </si>
   <si>
     <t>DeleteStaffTest</t>
@@ -69,9 +72,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,6 +82,81 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -89,122 +167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +183,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -225,8 +198,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,187 +256,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,24 +465,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -491,6 +476,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,17 +534,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,162 +562,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1205,6 +1208,27 @@
         <v>10</v>
       </c>
     </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1225,7 +1249,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
@@ -1233,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:2">
@@ -1241,7 +1265,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:2">
@@ -1249,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Test-Cases.xlsx
+++ b/src/test/resources/Test-Cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>A_Catagory_1</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>A_Catagory_5</t>
+  </si>
+  <si>
+    <t>A_Catagory_6</t>
+  </si>
+  <si>
+    <t>Search_Category</t>
   </si>
   <si>
     <t>DeleteStaffTest</t>
@@ -72,9 +78,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -84,46 +90,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,25 +127,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,11 +218,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,58 +240,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -256,6 +262,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -268,31 +346,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,37 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,97 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,56 +471,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,7 +501,52 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,11 +562,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,148 +573,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,10 +1117,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1229,6 +1235,27 @@
         <v>10</v>
       </c>
     </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1249,7 +1276,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:2">
@@ -1257,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:2">
@@ -1265,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:2">
@@ -1273,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Test-Cases.xlsx
+++ b/src/test/resources/Test-Cases.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INDEXWORKSPACE\indexerp\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4457BD7-0920-424E-A5E8-8E4CC919376E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1539E8A-0D73-4996-BB69-9C3A9B389D1D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="4890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="2" r:id="rId1"/>
     <sheet name="Vendor" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
   <si>
     <t>A_Catagory_1</t>
   </si>
@@ -110,13 +110,103 @@
     <t>Outer State</t>
   </si>
   <si>
+    <t>A_Vendor_2</t>
+  </si>
+  <si>
+    <t>ExistingVendorName</t>
+  </si>
+  <si>
+    <t>Ramananda Guin</t>
+  </si>
+  <si>
+    <t>Mahendra Dash</t>
+  </si>
+  <si>
+    <t>rama@gmail.com</t>
+  </si>
+  <si>
+    <t>mahendra@gmail.com</t>
+  </si>
+  <si>
+    <t>9035926654</t>
+  </si>
+  <si>
+    <t>9853757805</t>
+  </si>
+  <si>
+    <t>29BGIPG9703P1Z1</t>
+  </si>
+  <si>
+    <t>29BGIPG9703P1Z2</t>
+  </si>
+  <si>
+    <t>29BGIPG9703P1Z3</t>
+  </si>
+  <si>
+    <t>29BGIPG9703P1Z4</t>
+  </si>
+  <si>
+    <t>A_Vendor_3</t>
+  </si>
+  <si>
+    <t>A_Vendor_4</t>
+  </si>
+  <si>
+    <t>A_Vendor_1</t>
+  </si>
+  <si>
+    <t>Rahul Desai</t>
+  </si>
+  <si>
+    <t>Sanam RE</t>
+  </si>
+  <si>
+    <t>rahuldesai@gmail.com</t>
+  </si>
+  <si>
+    <t>sanamre@gmail.com</t>
+  </si>
+  <si>
+    <t>8971909090</t>
+  </si>
+  <si>
+    <t>9110676000</t>
+  </si>
+  <si>
     <t>29BGIPG9703P1Z5</t>
   </si>
   <si>
+    <t>29BGIPG9703P1Z6</t>
+  </si>
+  <si>
+    <t>A_Vendor_5</t>
+  </si>
+  <si>
+    <t>A_Vendor_6</t>
+  </si>
+  <si>
+    <t>Jayadev Undadkad</t>
+  </si>
+  <si>
+    <t>Ben Stokes</t>
+  </si>
+  <si>
+    <t>29BGIPG9703P1Z7</t>
+  </si>
+  <si>
     <t>29BGIPG9703P1Z8</t>
   </si>
   <si>
-    <t>A_Vendor_2</t>
+    <t>8971909091</t>
+  </si>
+  <si>
+    <t>9110676001</t>
+  </si>
+  <si>
+    <t>jayadev@gmail.com</t>
+  </si>
+  <si>
+    <t>Ben@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -548,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
@@ -694,101 +784,391 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="2" t="s">
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{990C2C4C-2569-431C-A3AA-602C95B97C1B}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{3F711A97-699B-430C-9AFA-7BA0CEAE1B07}"/>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{4B73C675-5C86-4C0C-96DB-F5D9773F1690}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{55747599-D972-48D0-B0B4-7C143C0EB594}"/>
+    <hyperlink ref="C21" r:id="rId3" xr:uid="{053A1560-0870-4EF5-95DD-90E99870C423}"/>
+    <hyperlink ref="C22" r:id="rId4" xr:uid="{2B1978C6-9EA6-4DF1-B55E-715242068A08}"/>
+    <hyperlink ref="C26" r:id="rId5" xr:uid="{2B4E793B-99B7-4930-9B7F-B3769AFC08A3}"/>
+    <hyperlink ref="C27" r:id="rId6" xr:uid="{D8F28CCA-E520-4B3D-AFF9-264A0C0E0DD2}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{3F711A97-699B-430C-9AFA-7BA0CEAE1B07}"/>
+    <hyperlink ref="C6" r:id="rId8" xr:uid="{990C2C4C-2569-431C-A3AA-602C95B97C1B}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Test-Cases.xlsx
+++ b/src/test/resources/Test-Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INDEXWORKSPACE\indexerp\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1539E8A-0D73-4996-BB69-9C3A9B389D1D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA1B79B-F235-42E0-ABC6-6FAAB07F36EB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="4890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="72">
   <si>
     <t>A_Catagory_1</t>
   </si>
@@ -207,6 +207,36 @@
   </si>
   <si>
     <t>Ben@gmail.com</t>
+  </si>
+  <si>
+    <t>A_Vendor_7</t>
+  </si>
+  <si>
+    <t>Sanju Samsun</t>
+  </si>
+  <si>
+    <t>sanjusamson@gmail.com</t>
+  </si>
+  <si>
+    <t>8971909092</t>
+  </si>
+  <si>
+    <t>29BGIPG9703P1Z9</t>
+  </si>
+  <si>
+    <t>A_Vendor_8</t>
+  </si>
+  <si>
+    <t>A_Vendor_9</t>
+  </si>
+  <si>
+    <t>David Miller</t>
+  </si>
+  <si>
+    <t>davidmiller@gmail.com</t>
+  </si>
+  <si>
+    <t>8971909093</t>
   </si>
 </sst>
 </file>
@@ -784,10 +814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1159,6 +1189,125 @@
         <v>23</v>
       </c>
     </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1" xr:uid="{4B73C675-5C86-4C0C-96DB-F5D9773F1690}"/>
@@ -1169,6 +1318,8 @@
     <hyperlink ref="C27" r:id="rId6" xr:uid="{D8F28CCA-E520-4B3D-AFF9-264A0C0E0DD2}"/>
     <hyperlink ref="C7" r:id="rId7" xr:uid="{3F711A97-699B-430C-9AFA-7BA0CEAE1B07}"/>
     <hyperlink ref="C6" r:id="rId8" xr:uid="{990C2C4C-2569-431C-A3AA-602C95B97C1B}"/>
+    <hyperlink ref="C31" r:id="rId9" xr:uid="{97661837-02EA-4637-8EC8-961567EAFBDB}"/>
+    <hyperlink ref="C37" r:id="rId10" xr:uid="{E83865FF-BBA9-4AC4-BF73-31068C04811D}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Test-Cases.xlsx
+++ b/src/test/resources/Test-Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INDEXWORKSPACE\indexerp\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA1B79B-F235-42E0-ABC6-6FAAB07F36EB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7F2CD2-E7E1-4350-B6F2-208A2EF2E469}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="4890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="80">
   <si>
     <t>A_Catagory_1</t>
   </si>
@@ -237,6 +237,30 @@
   </si>
   <si>
     <t>8971909093</t>
+  </si>
+  <si>
+    <t>A_Vendor_10</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>D Ningidi</t>
+  </si>
+  <si>
+    <t>dningidi@gmail.com</t>
+  </si>
+  <si>
+    <t>9090909090</t>
+  </si>
+  <si>
+    <t>29BGIPG9703P1Z10</t>
+  </si>
+  <si>
+    <t>29BGIPG9703P1Z11</t>
+  </si>
+  <si>
+    <t>A_Vendor_11</t>
   </si>
 </sst>
 </file>
@@ -814,10 +838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -826,7 +850,7 @@
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1302,9 +1326,88 @@
         <v>28</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G37" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1320,6 +1423,7 @@
     <hyperlink ref="C6" r:id="rId8" xr:uid="{990C2C4C-2569-431C-A3AA-602C95B97C1B}"/>
     <hyperlink ref="C31" r:id="rId9" xr:uid="{97661837-02EA-4637-8EC8-961567EAFBDB}"/>
     <hyperlink ref="C37" r:id="rId10" xr:uid="{E83865FF-BBA9-4AC4-BF73-31068C04811D}"/>
+    <hyperlink ref="C45" r:id="rId11" xr:uid="{BCBC7493-70B4-4DE0-BE38-251EB78D2606}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
